--- a/index_coop/202206.xlsx
+++ b/index_coop/202206.xlsx
@@ -438,16 +438,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>25383.4</v>
+        <v>28773.9</v>
       </c>
       <c r="D2">
-        <v>17768.4</v>
+        <v>20141.7</v>
       </c>
       <c r="E2">
-        <v>25383.4</v>
+        <v>28773.9</v>
       </c>
       <c r="F2">
-        <v>17768.4</v>
+        <v>20141.7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -458,16 +458,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>5790.3</v>
+        <v>6136.9</v>
       </c>
       <c r="D3">
-        <v>5790.3</v>
+        <v>6136.9</v>
       </c>
       <c r="E3">
-        <v>31173.7</v>
+        <v>34910.8</v>
       </c>
       <c r="F3">
-        <v>23558.6</v>
+        <v>26278.6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -478,16 +478,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>429.7</v>
+        <v>405.4</v>
       </c>
       <c r="D4">
-        <v>300.8</v>
+        <v>283.8</v>
       </c>
       <c r="E4">
-        <v>31603.4</v>
+        <v>35316.2</v>
       </c>
       <c r="F4">
-        <v>23859.4</v>
+        <v>26562.4</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -498,16 +498,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>248.8</v>
+        <v>249.4</v>
       </c>
       <c r="D5">
-        <v>124.4</v>
+        <v>124.7</v>
       </c>
       <c r="E5">
-        <v>31852.2</v>
+        <v>35565.6</v>
       </c>
       <c r="F5">
-        <v>23983.9</v>
+        <v>26687.1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>31852.2</v>
+        <v>35565.6</v>
       </c>
       <c r="F6">
-        <v>23983.9</v>
+        <v>26687.1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -538,16 +538,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>58819.4</v>
+        <v>45440.3</v>
       </c>
       <c r="D7">
-        <v>35291.6</v>
+        <v>27264.2</v>
       </c>
       <c r="E7">
-        <v>90671.60000000001</v>
+        <v>81006</v>
       </c>
       <c r="F7">
-        <v>59275.5</v>
+        <v>53951.3</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>7870.5</v>
+        <v>4203.9</v>
       </c>
       <c r="D8">
-        <v>4722.3</v>
+        <v>2522.3</v>
       </c>
       <c r="E8">
-        <v>98542.10000000001</v>
+        <v>85209.8</v>
       </c>
       <c r="F8">
-        <v>63997.8</v>
+        <v>56473.7</v>
       </c>
     </row>
   </sheetData>

--- a/index_coop/202206.xlsx
+++ b/index_coop/202206.xlsx
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4203.9</v>
+        <v>723.3</v>
       </c>
       <c r="D8">
-        <v>2522.3</v>
+        <v>434</v>
       </c>
       <c r="E8">
-        <v>85209.8</v>
+        <v>81729.3</v>
       </c>
       <c r="F8">
-        <v>56473.7</v>
+        <v>54385.3</v>
       </c>
     </row>
   </sheetData>
